--- a/top_mammal_mass.xlsx
+++ b/top_mammal_mass.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="341">
   <si>
     <t xml:space="preserve">MSW05_Order</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t xml:space="preserve">Geometric mean mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log log trophic num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shai total trophic num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log log trophic mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shai total trophic mass</t>
   </si>
   <si>
     <t xml:space="preserve">Perissodactyla</t>
@@ -1373,16 +1385,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC64"/>
+  <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S30" activeCellId="0" sqref="S30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE1" activeCellId="0" sqref="AE:AF"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="24.63"/>
@@ -1390,12 +1402,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="13.75"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="1" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="22" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="978" min="27" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="29" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="978" min="33" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="979" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1481,25 +1495,37 @@
       <c r="AB1" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="AC1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>124</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G2" s="11" t="n">
         <v>2285939.43</v>
@@ -1511,7 +1537,7 @@
         <v>0.47</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K2" s="11" t="n">
         <v>4185</v>
@@ -1520,7 +1546,7 @@
         <v>9768292190224.22</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N2" s="13" t="n">
         <v>499651.784619799</v>
@@ -1542,19 +1568,19 @@
         <v>20375</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="X2" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AA2" s="0" t="n">
         <f aca="false">S2*G2</f>
@@ -1563,6 +1589,12 @@
       <c r="AB2" s="0" t="n">
         <f aca="false">R2*G2</f>
         <v>426118210040.494</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>8301426.37927675</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>80180986969.5203</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,19 +1602,19 @@
         <v>4258</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>461900.76</v>
@@ -1594,7 +1626,7 @@
         <v>0.4</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>56003281</v>
@@ -1603,7 +1635,7 @@
         <v>23096275489413.2</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>4398280.65958421</v>
@@ -1632,19 +1664,19 @@
         <v>2570000</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AA3" s="0" t="n">
         <f aca="false">S3*G3</f>
@@ -1653,6 +1685,18 @@
       <c r="AB3" s="0" t="n">
         <f aca="false">R3*G3</f>
         <v>534290631345.998</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>3167760.5711739</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>162173.837466701</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>37978598263.861</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>1944318354.77203</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,19 +1704,19 @@
         <v>4610</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>196287.5</v>
@@ -1684,7 +1728,7 @@
         <v>0.02</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>41688</v>
@@ -1693,7 +1737,7 @@
         <v>36215614458861.5</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N4" s="2" t="n">
         <v>13935998.9524328</v>
@@ -1715,16 +1759,16 @@
         <v>173000</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AA4" s="0" t="n">
         <f aca="false">S4*G4</f>
@@ -1733,6 +1777,18 @@
       <c r="AB4" s="0" t="n">
         <f aca="false">R4*G4</f>
         <v>597505811694.539</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>3089226.6020695</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>162001.460391307</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>98103055480.8861</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>5144600996.93115</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,19 +1796,19 @@
         <v>4611</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>371703.81</v>
@@ -1764,7 +1820,7 @@
         <v>0.007048404</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>22823</v>
@@ -1773,7 +1829,7 @@
         <v>22605612373867.1</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N5" s="2" t="n">
         <v>5146527.90504658</v>
@@ -1801,19 +1857,19 @@
         <v>31000</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="W5" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X5" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AA5" s="0" t="n">
         <f aca="false">S5*G5</f>
@@ -1822,6 +1878,12 @@
       <c r="AB5" s="0" t="n">
         <f aca="false">R5*G5</f>
         <v>488810933153.682</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <v>416577.41261592</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>25830548993.1103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,19 +1891,19 @@
         <v>1915</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>3824539.93</v>
@@ -1853,7 +1915,7 @@
         <v>6.72</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>12392</v>
@@ -1862,7 +1924,7 @@
         <v>3331648547686.3</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>111629.525794339</v>
@@ -1890,19 +1952,19 @@
         <v>570000</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="X6" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AA6" s="0" t="n">
         <f aca="false">S6*G6</f>
@@ -1911,6 +1973,18 @@
       <c r="AB6" s="0" t="n">
         <f aca="false">R6*G6</f>
         <v>198543582029.284</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>1450061.70575297</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>167754.724007543</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>3314753229113.77</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>383477138177.609</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1918,19 +1992,19 @@
         <v>393</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>995940.54</v>
@@ -1942,7 +2016,7 @@
         <v>0.11</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>6557</v>
@@ -1951,7 +2025,7 @@
         <v>7899208778826.86</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N7" s="2" t="n">
         <v>799900.05907009</v>
@@ -1973,16 +2047,16 @@
         <v>5250</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="X7" s="7" t="n">
         <v>2015</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AA7" s="0" t="n">
         <f aca="false">S7*G7</f>
@@ -1991,6 +2065,18 @@
       <c r="AB7" s="0" t="n">
         <f aca="false">R7*G7</f>
         <v>270917732874.887</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>3219257.82070161</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>273573.167737164</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>775413392002.45</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>65894783757.8593</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,19 +2084,19 @@
         <v>4145</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>592665.98</v>
@@ -2022,7 +2108,7 @@
         <v>5.84</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>21251</v>
@@ -2031,7 +2117,7 @@
         <v>8443091759491.88</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>1309940.86384448</v>
@@ -2059,19 +2145,19 @@
         <v>1000000</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X8" s="0" t="n">
         <v>1999</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AA8" s="0" t="n">
         <f aca="false">S8*G8</f>
@@ -2080,6 +2166,18 @@
       <c r="AB8" s="0" t="n">
         <f aca="false">R8*G8</f>
         <v>242557241568.964</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>7359.97392199796</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>1594.69403599642</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>2943989568.79918</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>637877614.398568</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2087,19 +2185,19 @@
         <v>4107</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>84471.54</v>
@@ -2111,7 +2209,7 @@
         <v>3.54</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>41775</v>
@@ -2120,7 +2218,7 @@
         <v>28026521310401.1</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N9" s="2" t="n">
         <v>21568166.9883104</v>
@@ -2143,16 +2241,16 @@
         <v>2802652.13104011</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AA9" s="0" t="n">
         <f aca="false">S9*G9</f>
@@ -2161,6 +2259,18 @@
       <c r="AB9" s="0" t="n">
         <f aca="false">R9*G9</f>
         <v>364251650136.058</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <v>6712553.48424733</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <v>461782.043731012</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <v>755286650593.888</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <v>51959036741.0092</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,19 +2278,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>31756.51</v>
@@ -2192,7 +2302,7 @@
         <v>0.01</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>3746</v>
@@ -2201,7 +2311,7 @@
         <v>51561288392789.9</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N10" s="2" t="n">
         <v>88678272.7628591</v>
@@ -2232,16 +2342,16 @@
         <v>4124903.07142319</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="W10" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AA10" s="0" t="n">
         <f aca="false">S10*G10</f>
@@ -2250,6 +2360,18 @@
       <c r="AB10" s="0" t="n">
         <f aca="false">R10*G10</f>
         <v>449525020909.015</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>2253864.3765315</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <v>224962.945812048</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>2244714904249.54</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>224049717732.041</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2257,19 +2379,19 @@
         <v>2846</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>52399.99</v>
@@ -2281,7 +2403,7 @@
         <v>0.07</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>15954</v>
@@ -2290,7 +2412,7 @@
         <v>34736611624656.6</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>39581951.5839671</v>
@@ -2313,25 +2435,37 @@
         <f aca="false">R11*G11</f>
         <v>375702821839.669</v>
       </c>
+      <c r="AC11" s="0" t="n">
+        <v>69536.1031120156</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <v>16502.4130018091</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <v>227368756381.325</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>53959496629.6579</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>3495</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>109088.5</v>
@@ -2343,7 +2477,7 @@
         <v>2.55</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>29742</v>
@@ -2352,7 +2486,7 @@
         <v>18784272161996.6</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>11714939.7293853</v>
@@ -2378,13 +2512,13 @@
         <v>2318690</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z12" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AA12" s="0" t="n">
         <f aca="false">S12*G12</f>
@@ -2393,6 +2527,18 @@
       <c r="AB12" s="0" t="n">
         <f aca="false">R12*G12</f>
         <v>279944873016.92</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>529082.405900588</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <v>41620.8967477236</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>21888684086.9854</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>1721899367.97698</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2400,19 +2546,19 @@
         <v>4053</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>169496.64</v>
@@ -2424,7 +2570,7 @@
         <v>0.85</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>21474</v>
@@ -2433,7 +2579,7 @@
         <v>13073014513067.8</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N13" s="2" t="n">
         <v>5675515.6363152</v>
@@ -2464,16 +2610,16 @@
         <v>48370153.6983509</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Y13" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z13" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AA13" s="0" t="n">
         <f aca="false">S13*G13</f>
@@ -2482,6 +2628,18 @@
       <c r="AB13" s="0" t="n">
         <f aca="false">R13*G13</f>
         <v>236000657129.319</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <v>3195112.94471751</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <v>163248.873480292</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <v>38227545413.5193</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <v>1953171556.89014</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,19 +2647,19 @@
         <v>4609</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>110500</v>
@@ -2513,7 +2671,7 @@
         <v>0.72</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>41687</v>
@@ -2522,7 +2680,7 @@
         <v>16122483086222.3</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N14" s="2" t="n">
         <v>9949199.45646173</v>
@@ -2551,13 +2709,13 @@
         <v>950000</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Y14" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z14" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AA14" s="0" t="n">
         <f aca="false">S14*G14</f>
@@ -2566,6 +2724,18 @@
       <c r="AB14" s="0" t="n">
         <f aca="false">R14*G14</f>
         <v>246307704927.959</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>104680722.136787</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>3459137.77309471</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <v>1897276327103.2</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <v>62694831246.0555</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2573,19 +2743,19 @@
         <v>3438</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>53954.05</v>
@@ -2597,7 +2767,7 @@
         <v>0.02</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>18868</v>
@@ -2606,7 +2776,7 @@
         <v>22660248130350.5</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N15" s="2" t="n">
         <v>25208145.2119352</v>
@@ -2637,16 +2807,16 @@
         <v>147291612.847278</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="W15" s="17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Y15" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z15" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AA15" s="0" t="n">
         <f aca="false">S15*G15</f>
@@ -2655,6 +2825,12 @@
       <c r="AB15" s="0" t="n">
         <f aca="false">R15*G15</f>
         <v>262107666540.158</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>4070557.43311851</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>49154341928.2172</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2662,19 +2838,19 @@
         <v>1635</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>204393.48</v>
@@ -2686,7 +2862,7 @@
         <v>2.46</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>11035</v>
@@ -2695,7 +2871,7 @@
         <v>8949699489190.13</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N16" s="2" t="n">
         <v>3331229.45321</v>
@@ -2720,16 +2896,16 @@
         <v>79000</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="X16" s="0" t="n">
         <v>1999</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z16" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AA16" s="0" t="n">
         <f aca="false">S16*G16</f>
@@ -2738,6 +2914,18 @@
       <c r="AB16" s="0" t="n">
         <f aca="false">R16*G16</f>
         <v>180678148758.113</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <v>3146653.80842375</v>
+      </c>
+      <c r="AD16" s="0" t="n">
+        <v>265944.602306179</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <v>624987372499.906</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <v>52821831807.7805</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,19 +2933,19 @@
         <v>2781</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>56175.2</v>
@@ -2769,7 +2957,7 @@
         <v>-999</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>41504</v>
@@ -2778,7 +2966,7 @@
         <v>19273000829799</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N17" s="2" t="n">
         <v>20740711.7810881</v>
@@ -2801,25 +2989,37 @@
         <f aca="false">R17*G17</f>
         <v>230851998403.633</v>
       </c>
+      <c r="AC17" s="0" t="n">
+        <v>389414.846302408</v>
+      </c>
+      <c r="AD17" s="0" t="n">
+        <v>33105.7776068568</v>
+      </c>
+      <c r="AE17" s="0" t="n">
+        <v>24677211021.8867</v>
+      </c>
+      <c r="AF17" s="0" t="n">
+        <v>2097912464.83096</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>2764</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>75901.25</v>
@@ -2831,7 +3031,7 @@
         <v>17.32</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>42394</v>
@@ -2840,7 +3040,7 @@
         <v>14410636173692</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="N18" s="2" t="n">
         <v>12109285.9455461</v>
@@ -2863,16 +3063,16 @@
       </c>
       <c r="T18" s="18"/>
       <c r="V18" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AA18" s="0" t="n">
         <f aca="false">S18*G18</f>
@@ -2881,6 +3081,18 @@
       <c r="AB18" s="0" t="n">
         <f aca="false">R18*G18</f>
         <v>197907193728.587</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>4192175.66721374</v>
+      </c>
+      <c r="AD18" s="0" t="n">
+        <v>201639.375961441</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <v>53628365301.075</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>2579469700.59297</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,19 +3100,19 @@
         <v>1475</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>35070.51</v>
@@ -2912,7 +3124,7 @@
         <v>-999</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>10274</v>
@@ -2921,7 +3133,7 @@
         <v>23460487003951.4</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>37187298.6993715</v>
@@ -2950,16 +3162,16 @@
         <v>14000</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="W19" s="17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Y19" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Z19" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AA19" s="0" t="n">
         <f aca="false">S19*G19</f>
@@ -2968,6 +3180,18 @@
       <c r="AB19" s="0" t="n">
         <f aca="false">R19*G19</f>
         <v>234910678600.419</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <v>16518260.1658</v>
+      </c>
+      <c r="AD19" s="0" t="n">
+        <v>570826.253616031</v>
+      </c>
+      <c r="AE19" s="0" t="n">
+        <v>75539325199.0167</v>
+      </c>
+      <c r="AF19" s="0" t="n">
+        <v>2610434123.8864</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2975,19 +3199,19 @@
         <v>3441</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>177522.9</v>
@@ -2999,7 +3223,7 @@
         <v>4.89</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>41790</v>
@@ -3008,7 +3232,7 @@
         <v>7570387844146.94</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N20" s="2" t="n">
         <v>3163960.30480831</v>
@@ -3031,25 +3255,37 @@
         <f aca="false">R20*G20</f>
         <v>149346690310.619</v>
       </c>
+      <c r="AC20" s="0" t="n">
+        <v>532980.873149915</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <v>73986.8092313641</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <v>514142520283.595</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <v>71371725482.6431</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>870</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>63369.98</v>
@@ -3061,7 +3297,7 @@
         <v>0.12</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>5674</v>
@@ -3070,7 +3306,7 @@
         <v>14474893403445.7</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N21" s="2" t="n">
         <v>14108052.9042963</v>
@@ -3099,13 +3335,13 @@
         <v>47000</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Y21" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AA21" s="0" t="n">
         <f aca="false">S21*G21</f>
@@ -3114,6 +3350,12 @@
       <c r="AB21" s="0" t="n">
         <f aca="false">R21*G21</f>
         <v>187388344909.014</v>
+      </c>
+      <c r="AD21" s="0" t="n">
+        <v>5535.41645214065</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <v>8504117863.75479</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,19 +3363,19 @@
         <v>1461</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>264173.96</v>
@@ -3145,7 +3387,7 @@
         <v>0.96</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>10167</v>
@@ -3154,7 +3396,7 @@
         <v>5571097586104.12</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>1679373.05429596</v>
@@ -3183,19 +3425,19 @@
         <v>76000</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="W22" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="X22" s="0" t="n">
         <v>1999</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AA22" s="0" t="n">
         <f aca="false">S22*G22</f>
@@ -3204,6 +3446,18 @@
       <c r="AB22" s="0" t="n">
         <f aca="false">R22*G22</f>
         <v>130296012345.874</v>
+      </c>
+      <c r="AC22" s="0" t="n">
+        <v>4513891.56668849</v>
+      </c>
+      <c r="AD22" s="0" t="n">
+        <v>356726.100308762</v>
+      </c>
+      <c r="AE22" s="0" t="n">
+        <v>1192452610182.7</v>
+      </c>
+      <c r="AF22" s="0" t="n">
+        <v>94237746553.9229</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3211,19 +3465,19 @@
         <v>4656</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>4820.36</v>
@@ -3235,7 +3489,7 @@
         <v>1.1</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>23062</v>
@@ -3244,7 +3498,7 @@
         <v>72402482931127.2</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N23" s="2" t="n">
         <v>586492053.726343</v>
@@ -3275,16 +3529,16 @@
         <v>2172074487.93382</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Y23" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z23" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AA23" s="0" t="n">
         <f aca="false">S23*G23</f>
@@ -3293,6 +3547,18 @@
       <c r="AB23" s="0" t="n">
         <f aca="false">R23*G23</f>
         <v>327344080940.802</v>
+      </c>
+      <c r="AC23" s="0" t="n">
+        <v>2664856.23729761</v>
+      </c>
+      <c r="AD23" s="0" t="n">
+        <v>236275.7835125</v>
+      </c>
+      <c r="AE23" s="0" t="n">
+        <v>629987737148.955</v>
+      </c>
+      <c r="AF23" s="0" t="n">
+        <v>55856989249.4778</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3300,19 +3566,19 @@
         <v>4036</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>206056.41</v>
@@ -3324,7 +3590,7 @@
         <v>1.06</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>22054</v>
@@ -3333,7 +3599,7 @@
         <v>6085607899611.66</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N24" s="2" t="n">
         <v>2250128.75094704</v>
@@ -3362,13 +3628,13 @@
         <v>482000</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Y24" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AA24" s="0" t="n">
         <f aca="false">S24*G24</f>
@@ -3377,6 +3643,12 @@
       <c r="AB24" s="0" t="n">
         <f aca="false">R24*G24</f>
         <v>129764063641.743</v>
+      </c>
+      <c r="AD24" s="0" t="n">
+        <v>2286399.29361208</v>
+      </c>
+      <c r="AF24" s="0" t="n">
+        <v>80185189290.6153</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,19 +3656,19 @@
         <v>4257</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>160937.86</v>
@@ -3408,7 +3680,7 @@
         <v>3.65</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>811</v>
@@ -3417,7 +3689,7 @@
         <v>6856360412844.35</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N25" s="2" t="n">
         <v>3106136.8081713</v>
@@ -3447,13 +3719,13 @@
         <v>362000</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Y25" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z25" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AA25" s="0" t="n">
         <f aca="false">S25*G25</f>
@@ -3462,6 +3734,18 @@
       <c r="AB25" s="0" t="n">
         <f aca="false">R25*G25</f>
         <v>132793941487.718</v>
+      </c>
+      <c r="AC25" s="0" t="n">
+        <v>41403466.8300238</v>
+      </c>
+      <c r="AD25" s="0" t="n">
+        <v>1787991.22594201</v>
+      </c>
+      <c r="AE25" s="0" t="n">
+        <v>1993366184219.48</v>
+      </c>
+      <c r="AF25" s="0" t="n">
+        <v>86082676653.7677</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,19 +3753,19 @@
         <v>3050</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>82499.99</v>
@@ -3493,7 +3777,7 @@
         <v>-999</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>41768</v>
@@ -3502,7 +3786,7 @@
         <v>9955175536914.72</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="N26" s="2" t="n">
         <v>7811309.0325835</v>
@@ -3525,16 +3809,16 @@
       </c>
       <c r="T26" s="18"/>
       <c r="V26" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Y26" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z26" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AA26" s="0" t="n">
         <f aca="false">S26*G26</f>
@@ -3543,6 +3827,18 @@
       <c r="AB26" s="0" t="n">
         <f aca="false">R26*G26</f>
         <v>147653375565.248</v>
+      </c>
+      <c r="AC26" s="0" t="n">
+        <v>8872532.04471729</v>
+      </c>
+      <c r="AD26" s="0" t="n">
+        <v>591746.418189625</v>
+      </c>
+      <c r="AE26" s="0" t="n">
+        <v>1813487701031.28</v>
+      </c>
+      <c r="AF26" s="0" t="n">
+        <v>120949109691.313</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,19 +3846,19 @@
         <v>4612</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>99714.19</v>
@@ -3574,7 +3870,7 @@
         <v>-999</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>22824</v>
@@ -3583,7 +3879,7 @@
         <v>8530082355747.48</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N27" s="2" t="n">
         <v>5727630.56974363</v>
@@ -3614,16 +3910,16 @@
         <v>1347717.47495618</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="W27" s="17" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Y27" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Z27" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AA27" s="0" t="n">
         <f aca="false">S27*G27</f>
@@ -3632,6 +3928,12 @@
       <c r="AB27" s="0" t="n">
         <f aca="false">R27*G27</f>
         <v>137363641627.093</v>
+      </c>
+      <c r="AD27" s="0" t="n">
+        <v>9598787.22545482</v>
+      </c>
+      <c r="AF27" s="0" t="n">
+        <v>86388989041.2211</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,19 +3941,19 @@
         <v>1483</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>48144.91</v>
@@ -3663,7 +3965,7 @@
         <v>125.34</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>10300</v>
@@ -3672,7 +3974,7 @@
         <v>13395889233942.3</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="N28" s="2" t="n">
         <v>16364967.0853459</v>
@@ -3696,25 +3998,37 @@
         <f aca="false">R28*G28</f>
         <v>160315942187.395</v>
       </c>
+      <c r="AC28" s="0" t="n">
+        <v>5580384.82306569</v>
+      </c>
+      <c r="AD28" s="0" t="n">
+        <v>249374.00316682</v>
+      </c>
+      <c r="AE28" s="0" t="n">
+        <v>45130915825.7579</v>
+      </c>
+      <c r="AF28" s="0" t="n">
+        <v>2016792300.6914</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
         <v>2845</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>83943.09</v>
@@ -3726,7 +4040,7 @@
         <v>0.05</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>15953</v>
@@ -3735,7 +4049,7 @@
         <v>9026158262853.03</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N29" s="2" t="n">
         <v>6982120.08071151</v>
@@ -3758,25 +4072,37 @@
         <f aca="false">R29*G29</f>
         <v>136420981885.395</v>
       </c>
+      <c r="AC29" s="0" t="n">
+        <v>329946.641116904</v>
+      </c>
+      <c r="AD29" s="0" t="n">
+        <v>55211.4318548717</v>
+      </c>
+      <c r="AE29" s="0" t="n">
+        <v>1261894103720.98</v>
+      </c>
+      <c r="AF29" s="0" t="n">
+        <v>211158325721.431</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
         <v>1299</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>964654.73</v>
@@ -3788,7 +4114,7 @@
         <v>1.23</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>9194</v>
@@ -3797,7 +4123,7 @@
         <v>1821654575118.61</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N30" s="2" t="n">
         <v>189370.501202695</v>
@@ -3821,16 +4147,16 @@
       <c r="T30" s="18"/>
       <c r="U30" s="0"/>
       <c r="V30" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="X30" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="Y30" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z30" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AA30" s="0" t="n">
         <f aca="false">S30*G30</f>
@@ -3839,6 +4165,18 @@
       <c r="AB30" s="0" t="n">
         <f aca="false">R30*G30</f>
         <v>75377132150.4578</v>
+      </c>
+      <c r="AC30" s="0" t="n">
+        <v>7111851.40233061</v>
+      </c>
+      <c r="AD30" s="0" t="n">
+        <v>301312.0611932</v>
+      </c>
+      <c r="AE30" s="0" t="n">
+        <v>63072805413.3354</v>
+      </c>
+      <c r="AF30" s="0" t="n">
+        <v>2672243263.98352</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3846,19 +4184,19 @@
         <v>1932</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G31" s="20" t="n">
         <v>19300</v>
@@ -3870,7 +4208,7 @@
         <v>0.02</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K31" s="20" t="n">
         <v>12519</v>
@@ -3879,7 +4217,7 @@
         <v>20817796119992.6</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N31" s="22" t="n">
         <v>53914631.7146586</v>
@@ -3903,16 +4241,16 @@
       </c>
       <c r="T31" s="23"/>
       <c r="V31" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Y31" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z31" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AA31" s="0" t="n">
         <f aca="false">S31*G31</f>
@@ -3921,6 +4259,18 @@
       <c r="AB31" s="0" t="n">
         <f aca="false">R31*G31</f>
         <v>174568800455.224</v>
+      </c>
+      <c r="AC31" s="0" t="n">
+        <v>2221275.29047485</v>
+      </c>
+      <c r="AD31" s="0" t="n">
+        <v>124370.191339276</v>
+      </c>
+      <c r="AE31" s="0" t="n">
+        <v>42870613106.1646</v>
+      </c>
+      <c r="AF31" s="0" t="n">
+        <v>2400344692.84802</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,19 +4278,19 @@
         <v>1393</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>1536310.4</v>
@@ -3952,7 +4302,7 @@
         <v>4.86</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>10103</v>
@@ -3961,7 +4311,7 @@
         <v>1233077313288.71</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="N32" s="2" t="n">
         <v>87438.8815309029</v>
@@ -3980,26 +4330,37 @@
         <v>40704.9130995774</v>
       </c>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
+      <c r="AC32" s="0" t="n">
+        <v>66167901.0994236</v>
+      </c>
+      <c r="AD32" s="0" t="n">
+        <v>2446788.19028866</v>
+      </c>
+      <c r="AE32" s="0" t="n">
+        <v>1359542600383.7</v>
+      </c>
+      <c r="AF32" s="0" t="n">
+        <v>50273814395.5144</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
         <v>4034</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>43250.39</v>
@@ -4011,7 +4372,7 @@
         <v>1.52</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>22051</v>
@@ -4020,7 +4381,7 @@
         <v>12064054173824.8</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N33" s="2" t="n">
         <v>16095685.4311839</v>
@@ -4037,6 +4398,18 @@
       <c r="R33" s="1" t="n">
         <f aca="false">GEOMEAN(N33:O33)</f>
         <v>3270110.4931485</v>
+      </c>
+      <c r="AC33" s="0" t="n">
+        <v>842360.401201532</v>
+      </c>
+      <c r="AD33" s="0" t="n">
+        <v>59249.0015536368</v>
+      </c>
+      <c r="AE33" s="0" t="n">
+        <v>24876444167.0154</v>
+      </c>
+      <c r="AF33" s="0" t="n">
+        <v>1749731441.55174</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4044,19 +4417,19 @@
         <v>632</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>41371.03</v>
@@ -4068,7 +4441,7 @@
         <v>80</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>42396</v>
@@ -4077,7 +4450,7 @@
         <v>11998106170147.6</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="N34" s="2" t="n">
         <v>16603066.7725094</v>
@@ -4094,6 +4467,18 @@
       <c r="R34" s="1" t="n">
         <f aca="false">GEOMEAN(N34:O34)</f>
         <v>3353866.44597876</v>
+      </c>
+      <c r="AC34" s="0" t="n">
+        <v>12582856.8932047</v>
+      </c>
+      <c r="AD34" s="0" t="n">
+        <v>737343.710636587</v>
+      </c>
+      <c r="AE34" s="0" t="n">
+        <v>1064013551117.82</v>
+      </c>
+      <c r="AF34" s="0" t="n">
+        <v>62350204457.3449</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4101,19 +4486,19 @@
         <v>4442</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>31798.71</v>
@@ -4125,7 +4510,7 @@
         <v>1.59</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>41778</v>
@@ -4134,7 +4519,7 @@
         <v>13750306716734.4</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N35" s="2" t="n">
         <v>23622821.8662475</v>
@@ -4151,6 +4536,18 @@
       <c r="R35" s="1" t="n">
         <f aca="false">GEOMEAN(N35:O35)</f>
         <v>4508285.28310507</v>
+      </c>
+      <c r="AC35" s="0" t="n">
+        <v>31136370.1013165</v>
+      </c>
+      <c r="AD35" s="0" t="n">
+        <v>1472479.02724317</v>
+      </c>
+      <c r="AE35" s="0" t="n">
+        <v>2363289411152.55</v>
+      </c>
+      <c r="AF35" s="0" t="n">
+        <v>111762998766.54</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,19 +4555,19 @@
         <v>153</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>240867.13</v>
@@ -4182,7 +4579,7 @@
         <v>2.9</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>55997072</v>
@@ -4191,7 +4588,7 @@
         <v>3694867676326.96</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="N36" s="2" t="n">
         <v>1201649.34349268</v>
@@ -4208,6 +4605,18 @@
       <c r="R36" s="1" t="n">
         <f aca="false">GEOMEAN(N36:O36)</f>
         <v>368036.950842203</v>
+      </c>
+      <c r="AC36" s="0" t="n">
+        <v>596213.86520401</v>
+      </c>
+      <c r="AD36" s="0" t="n">
+        <v>45910.8360795806</v>
+      </c>
+      <c r="AE36" s="0" t="n">
+        <v>33492433120.6083</v>
+      </c>
+      <c r="AF36" s="0" t="n">
+        <v>2579050398.93765</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,19 +4624,19 @@
         <v>1221</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>12792.49</v>
@@ -4239,7 +4648,7 @@
         <v>0.007916144</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>9561</v>
@@ -4248,7 +4657,7 @@
         <v>24394376489522.9</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="N37" s="2" t="n">
         <v>88587539.9006783</v>
@@ -4269,25 +4678,37 @@
       <c r="V37" s="24"/>
       <c r="W37" s="24"/>
       <c r="X37" s="24"/>
+      <c r="AC37" s="0" t="n">
+        <v>2551899.92231571</v>
+      </c>
+      <c r="AD37" s="0" t="n">
+        <v>226399.435311843</v>
+      </c>
+      <c r="AE37" s="0" t="n">
+        <v>509866924983.76</v>
+      </c>
+      <c r="AF37" s="0" t="n">
+        <v>45234369455.8992</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
         <v>1693</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>8999.99</v>
@@ -4299,7 +4720,7 @@
         <v>-999</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>41629</v>
@@ -4308,7 +4729,7 @@
         <v>29721595721682</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="N38" s="2" t="n">
         <v>144107032.930917</v>
@@ -4330,25 +4751,37 @@
       <c r="W38" s="25"/>
       <c r="X38" s="25"/>
       <c r="Z38" s="1"/>
+      <c r="AC38" s="0" t="n">
+        <v>5623125.75113951</v>
+      </c>
+      <c r="AD38" s="0" t="n">
+        <v>403210.43952414</v>
+      </c>
+      <c r="AE38" s="0" t="n">
+        <v>641029138028.943</v>
+      </c>
+      <c r="AF38" s="0" t="n">
+        <v>45965473996.3893</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>9658.7</v>
@@ -4360,7 +4793,7 @@
         <v>0.22</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>3744</v>
@@ -4369,7 +4802,7 @@
         <v>27116612002793.7</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N39" s="2" t="n">
         <v>124060142.172286</v>
@@ -4390,25 +4823,37 @@
       <c r="V39" s="25"/>
       <c r="W39" s="25"/>
       <c r="X39" s="25"/>
+      <c r="AC39" s="0" t="n">
+        <v>35439.9399059444</v>
+      </c>
+      <c r="AD39" s="0" t="n">
+        <v>5281.73191193017</v>
+      </c>
+      <c r="AE39" s="0" t="n">
+        <v>5621622546.84473</v>
+      </c>
+      <c r="AF39" s="0" t="n">
+        <v>837809073.076777</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
         <v>2275</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>29531.83</v>
@@ -4420,7 +4865,7 @@
         <v>1.1</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>14224</v>
@@ -4429,7 +4874,7 @@
         <v>12924609807666.3</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N40" s="2" t="n">
         <v>23596020.5083145</v>
@@ -4450,25 +4895,37 @@
       <c r="V40" s="25"/>
       <c r="W40" s="25"/>
       <c r="X40" s="25"/>
+      <c r="AC40" s="0" t="n">
+        <v>175306.001190771</v>
+      </c>
+      <c r="AD40" s="0" t="n">
+        <v>17958.4550934329</v>
+      </c>
+      <c r="AE40" s="0" t="n">
+        <v>14715727435.497</v>
+      </c>
+      <c r="AF40" s="0" t="n">
+        <v>1507488212.169</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
         <v>426</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>3269794.34</v>
@@ -4480,7 +4937,7 @@
         <v>0.53</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>7140</v>
@@ -4489,7 +4946,7 @@
         <v>620727376006.294</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="N41" s="2" t="n">
         <v>23657.2957781356</v>
@@ -4510,25 +4967,37 @@
       <c r="V41" s="25"/>
       <c r="W41" s="25"/>
       <c r="X41" s="25"/>
+      <c r="AC41" s="0" t="n">
+        <v>1164808.47158646</v>
+      </c>
+      <c r="AD41" s="0" t="n">
+        <v>76944.0842359874</v>
+      </c>
+      <c r="AE41" s="0" t="n">
+        <v>61035952263.0459</v>
+      </c>
+      <c r="AF41" s="0" t="n">
+        <v>4031869244.5249</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
         <v>2911</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>21133.69</v>
@@ -4540,7 +5009,7 @@
         <v>7.92</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>41777</v>
@@ -4549,7 +5018,7 @@
         <v>15938720238964</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N42" s="2" t="n">
         <v>38311020.8377664</v>
@@ -4570,25 +5039,37 @@
       <c r="V42" s="25"/>
       <c r="W42" s="25"/>
       <c r="X42" s="25"/>
+      <c r="AC42" s="0" t="n">
+        <v>94131300.8534012</v>
+      </c>
+      <c r="AD42" s="0" t="n">
+        <v>3214790.83741611</v>
+      </c>
+      <c r="AE42" s="0" t="n">
+        <v>1989341731532.51</v>
+      </c>
+      <c r="AF42" s="0" t="n">
+        <v>67940392972.7925</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
         <v>2763</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>84560.57</v>
@@ -4600,7 +5081,7 @@
         <v>16</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>42393</v>
@@ -4609,7 +5090,7 @@
         <v>6340068206683.66</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="N43" s="2" t="n">
         <v>4874857.38460332</v>
@@ -4630,25 +5111,37 @@
       <c r="V43" s="25"/>
       <c r="W43" s="25"/>
       <c r="X43" s="25"/>
+      <c r="AC43" s="0" t="n">
+        <v>20144676.4353001</v>
+      </c>
+      <c r="AD43" s="0" t="n">
+        <v>1057908.30703954</v>
+      </c>
+      <c r="AE43" s="0" t="n">
+        <v>1661935604465.49</v>
+      </c>
+      <c r="AF43" s="0" t="n">
+        <v>87277424751.6788</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
         <v>1919</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>8868.69</v>
@@ -4660,7 +5153,7 @@
         <v>0.85</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>12419</v>
@@ -4669,7 +5162,7 @@
         <v>27068053046251.4</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N44" s="2" t="n">
         <v>132836226.722222</v>
@@ -4690,25 +5183,31 @@
       <c r="V44" s="25"/>
       <c r="W44" s="25"/>
       <c r="X44" s="25"/>
+      <c r="AD44" s="0" t="n">
+        <v>362675.632778234</v>
+      </c>
+      <c r="AF44" s="0" t="n">
+        <v>25047753740.3131</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
         <v>288</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>400000</v>
@@ -4720,7 +5219,7 @@
         <v>-999</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>41013</v>
@@ -4729,7 +5228,7 @@
         <v>2314214441944.38</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N45" s="2" t="n">
         <v>496032.676194178</v>
@@ -4750,25 +5249,31 @@
       <c r="V45" s="25"/>
       <c r="W45" s="25"/>
       <c r="X45" s="25"/>
+      <c r="AD45" s="0" t="n">
+        <v>299005.403636937</v>
+      </c>
+      <c r="AF45" s="0" t="n">
+        <v>20930470946.2607</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="n">
         <v>1462</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>236405.9</v>
@@ -4780,7 +5285,7 @@
         <v>1.3</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>10170</v>
@@ -4789,7 +5294,7 @@
         <v>3013918723371.13</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="N46" s="2" t="n">
         <v>995369.673663306</v>
@@ -4810,25 +5315,37 @@
       <c r="V46" s="25"/>
       <c r="W46" s="25"/>
       <c r="X46" s="25"/>
+      <c r="AC46" s="0" t="n">
+        <v>734551.059456908</v>
+      </c>
+      <c r="AD46" s="0" t="n">
+        <v>53905.6753130632</v>
+      </c>
+      <c r="AE46" s="0" t="n">
+        <v>39632004589.491</v>
+      </c>
+      <c r="AF46" s="0" t="n">
+        <v>2908429501.12477</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="n">
         <v>656</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>18124.41</v>
@@ -4840,7 +5357,7 @@
         <v>0.6</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>4003</v>
@@ -4849,7 +5366,7 @@
         <v>15707995553931.2</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="N47" s="2" t="n">
         <v>42837869.3514539</v>
@@ -4870,25 +5387,37 @@
       <c r="V47" s="25"/>
       <c r="W47" s="25"/>
       <c r="X47" s="25"/>
+      <c r="AC47" s="0" t="n">
+        <v>8384902.9578549</v>
+      </c>
+      <c r="AD47" s="0" t="n">
+        <v>562122.603122767</v>
+      </c>
+      <c r="AE47" s="0" t="n">
+        <v>1488512289296.98</v>
+      </c>
+      <c r="AF47" s="0" t="n">
+        <v>99789634661.9026</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="n">
         <v>2844</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>158623.93</v>
@@ -4900,7 +5429,7 @@
         <v>0.11</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>15951</v>
@@ -4909,7 +5438,7 @@
         <v>3815050311868.76</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="N48" s="2" t="n">
         <v>1749029.7381778</v>
@@ -4930,25 +5459,37 @@
       <c r="V48" s="25"/>
       <c r="W48" s="25"/>
       <c r="X48" s="25"/>
+      <c r="AC48" s="0" t="n">
+        <v>30513319.1884252</v>
+      </c>
+      <c r="AD48" s="0" t="n">
+        <v>1479255.63693692</v>
+      </c>
+      <c r="AE48" s="0" t="n">
+        <v>3328652220286.52</v>
+      </c>
+      <c r="AF48" s="0" t="n">
+        <v>161369778549.993</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="n">
         <v>823</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>198619.68</v>
@@ -4960,7 +5501,7 @@
         <v>7.99</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>5229</v>
@@ -4969,7 +5510,7 @@
         <v>3103291988557.37</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N49" s="2" t="n">
         <v>1182628.46476312</v>
@@ -4990,25 +5531,37 @@
       <c r="V49" s="25"/>
       <c r="W49" s="25"/>
       <c r="X49" s="25"/>
+      <c r="AC49" s="0" t="n">
+        <v>40567280.8852281</v>
+      </c>
+      <c r="AD49" s="0" t="n">
+        <v>1749666.63120517</v>
+      </c>
+      <c r="AE49" s="0" t="n">
+        <v>1754550719525.66</v>
+      </c>
+      <c r="AF49" s="0" t="n">
+        <v>75673764169.6095</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="n">
         <v>3295</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>69063.79</v>
@@ -5020,7 +5573,7 @@
         <v>0.4</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>41770</v>
@@ -5029,7 +5582,7 @@
         <v>5881489863927.78</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N50" s="2" t="n">
         <v>5341011.56122572</v>
@@ -5050,25 +5603,37 @@
       <c r="V50" s="25"/>
       <c r="W50" s="25"/>
       <c r="X50" s="25"/>
+      <c r="AC50" s="0" t="n">
+        <v>5994811.00574841</v>
+      </c>
+      <c r="AD50" s="0" t="n">
+        <v>437745.493276085</v>
+      </c>
+      <c r="AE50" s="0" t="n">
+        <v>1235269234473.01</v>
+      </c>
+      <c r="AF50" s="0" t="n">
+        <v>90200264838.1492</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="n">
         <v>341</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>112518.53</v>
@@ -5080,7 +5645,7 @@
         <v>0.12</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>2828</v>
@@ -5089,7 +5654,7 @@
         <v>4234153348939.04</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="N51" s="2" t="n">
         <v>2574307.45296492</v>
@@ -5110,25 +5675,31 @@
       <c r="V51" s="25"/>
       <c r="W51" s="25"/>
       <c r="X51" s="25"/>
+      <c r="AD51" s="0" t="n">
+        <v>329101.170900445</v>
+      </c>
+      <c r="AF51" s="0" t="n">
+        <v>55781542687.6912</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="n">
         <v>120</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G52" s="0" t="n">
         <v>62006.6</v>
@@ -5140,7 +5711,7 @@
         <v>0.5</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>4150</v>
@@ -5149,7 +5720,7 @@
         <v>6162598452237.11</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="N52" s="2" t="n">
         <v>6114766.83796521</v>
@@ -5170,25 +5741,31 @@
       <c r="V52" s="25"/>
       <c r="W52" s="25"/>
       <c r="X52" s="25"/>
+      <c r="AD52" s="0" t="n">
+        <v>1214219.52914025</v>
+      </c>
+      <c r="AF52" s="0" t="n">
+        <v>102566993524.552</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="n">
         <v>641</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>11964.38</v>
@@ -5200,7 +5777,7 @@
         <v>-999</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>3847</v>
@@ -5209,7 +5786,7 @@
         <v>17204940118472.7</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="N53" s="2" t="n">
         <v>66012688.783992</v>
@@ -5230,25 +5807,37 @@
       <c r="V53" s="25"/>
       <c r="W53" s="25"/>
       <c r="X53" s="25"/>
+      <c r="AC53" s="0" t="n">
+        <v>101599349.092562</v>
+      </c>
+      <c r="AD53" s="0" t="n">
+        <v>3352874.93223304</v>
+      </c>
+      <c r="AE53" s="0" t="n">
+        <v>1588927460360.95</v>
+      </c>
+      <c r="AF53" s="0" t="n">
+        <v>52436113996.4324</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>11989.1</v>
@@ -5260,7 +5849,7 @@
         <v>0.25</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>3745</v>
@@ -5269,7 +5858,7 @@
         <v>17098504203572.8</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="N54" s="2" t="n">
         <v>65493100.1644605</v>
@@ -5290,25 +5879,37 @@
       <c r="V54" s="25"/>
       <c r="W54" s="25"/>
       <c r="X54" s="25"/>
+      <c r="AC54" s="0" t="n">
+        <v>3623516.89098749</v>
+      </c>
+      <c r="AD54" s="0" t="n">
+        <v>315036.346868251</v>
+      </c>
+      <c r="AE54" s="0" t="n">
+        <v>2147535189243.65</v>
+      </c>
+      <c r="AF54" s="0" t="n">
+        <v>186711325252.292</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="n">
         <v>4549</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>270998.37</v>
@@ -5320,7 +5921,7 @@
         <v>0.4</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>22047</v>
@@ -5329,7 +5930,7 @@
         <v>2217282327608.96</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="N55" s="2" t="n">
         <v>654519.192141065</v>
@@ -5350,25 +5951,37 @@
       <c r="V55" s="25"/>
       <c r="W55" s="25"/>
       <c r="X55" s="25"/>
+      <c r="AC55" s="0" t="n">
+        <v>8203012.38962833</v>
+      </c>
+      <c r="AD55" s="0" t="n">
+        <v>549705.496654124</v>
+      </c>
+      <c r="AE55" s="0" t="n">
+        <v>1320175259540.27</v>
+      </c>
+      <c r="AF55" s="0" t="n">
+        <v>88468426261.7519</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
         <v>4112</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>15639.15</v>
@@ -5380,7 +5993,7 @@
         <v>2.42</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>21203</v>
@@ -5389,7 +6002,7 @@
         <v>13576011167444.5</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="N56" s="2" t="n">
         <v>41795447.6657046</v>
@@ -5410,25 +6023,37 @@
       <c r="V56" s="25"/>
       <c r="W56" s="25"/>
       <c r="X56" s="25"/>
+      <c r="AC56" s="0" t="n">
+        <v>12059047.8248683</v>
+      </c>
+      <c r="AD56" s="0" t="n">
+        <v>784197.638415579</v>
+      </c>
+      <c r="AE56" s="0" t="n">
+        <v>5570083355183</v>
+      </c>
+      <c r="AF56" s="0" t="n">
+        <v>362221485174.361</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="n">
         <v>4348</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>19322.22</v>
@@ -5440,7 +6065,7 @@
         <v>0.35</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>1793</v>
@@ -5449,7 +6074,7 @@
         <v>11817071133471.9</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N57" s="2" t="n">
         <v>30575317.6179347</v>
@@ -5470,25 +6095,31 @@
       <c r="V57" s="25"/>
       <c r="W57" s="25"/>
       <c r="X57" s="25"/>
+      <c r="AD57" s="0" t="n">
+        <v>2123647.57454023</v>
+      </c>
+      <c r="AF57" s="0" t="n">
+        <v>41033585637.7327</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="n">
         <v>1257</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>4573.08</v>
@@ -5500,7 +6131,7 @@
         <v>0.36</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>60354712</v>
@@ -5509,7 +6140,7 @@
         <v>29179663482988</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="N58" s="2" t="n">
         <v>246824716.23115</v>
@@ -5530,25 +6161,31 @@
       <c r="V58" s="25"/>
       <c r="W58" s="25"/>
       <c r="X58" s="25"/>
+      <c r="AD58" s="0" t="n">
+        <v>1552134.92598822</v>
+      </c>
+      <c r="AF58" s="0" t="n">
+        <v>49355888392.3709</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="n">
         <v>2056</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G59" s="0" t="n">
         <v>20546.86</v>
@@ -5560,7 +6197,7 @@
         <v>9.3</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>29619</v>
@@ -5569,7 +6206,7 @@
         <v>10958435227958.1</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N59" s="2" t="n">
         <v>26957013.4545311</v>
@@ -5590,25 +6227,37 @@
       <c r="V59" s="25"/>
       <c r="W59" s="25"/>
       <c r="X59" s="25"/>
+      <c r="AC59" s="0" t="n">
+        <v>1760840.77195887</v>
+      </c>
+      <c r="AD59" s="0" t="n">
+        <v>173041.588532704</v>
+      </c>
+      <c r="AE59" s="0" t="n">
+        <v>477184979030.394</v>
+      </c>
+      <c r="AF59" s="0" t="n">
+        <v>46893988434.5735</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="n">
         <v>2784</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>199798.95</v>
@@ -5620,7 +6269,7 @@
         <v>-999</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>15568</v>
@@ -5629,7 +6278,7 @@
         <v>2528478242993.96</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="N60" s="2" t="n">
         <v>958896.225890929</v>
@@ -5650,25 +6299,37 @@
       <c r="V60" s="25"/>
       <c r="W60" s="25"/>
       <c r="X60" s="25"/>
+      <c r="AC60" s="0" t="n">
+        <v>25926029.3774273</v>
+      </c>
+      <c r="AD60" s="0" t="n">
+        <v>1305789.98442768</v>
+      </c>
+      <c r="AE60" s="0" t="n">
+        <v>2864826246205.71</v>
+      </c>
+      <c r="AF60" s="0" t="n">
+        <v>144289793279.259</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="n">
         <v>759</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>12075.58</v>
@@ -5680,7 +6341,7 @@
         <v>-999</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>41695</v>
@@ -5689,7 +6350,7 @@
         <v>15260298131730</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="N61" s="2" t="n">
         <v>58107828.0507997</v>
@@ -5706,6 +6367,12 @@
       <c r="R61" s="1" t="n">
         <f aca="false">GEOMEAN(N61:O61)</f>
         <v>9493190.65782079</v>
+      </c>
+      <c r="AD61" s="0" t="n">
+        <v>714190.278662161</v>
+      </c>
+      <c r="AF61" s="0" t="n">
+        <v>140186624322.899</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5713,19 +6380,19 @@
         <v>2819</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G62" s="0" t="n">
         <v>113998.72</v>
@@ -5737,7 +6404,7 @@
         <v>0.02</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>15733</v>
@@ -5746,7 +6413,7 @@
         <v>3583607690746.78</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="N62" s="2" t="n">
         <v>2155503.24246851</v>
@@ -5763,6 +6430,12 @@
       <c r="R62" s="1" t="n">
         <f aca="false">GEOMEAN(N62:O62)</f>
         <v>594323.379324689</v>
+      </c>
+      <c r="AD62" s="0" t="n">
+        <v>264286.618661481</v>
+      </c>
+      <c r="AF62" s="0" t="n">
+        <v>98236343088.4896</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5770,19 +6443,19 @@
         <v>3296</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G63" s="0" t="n">
         <v>70000.31</v>
@@ -5794,7 +6467,7 @@
         <v>0.23</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>41771</v>
@@ -5803,7 +6476,7 @@
         <v>4799556715819.14</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N63" s="2" t="n">
         <v>4310512.99001051</v>
@@ -5820,6 +6493,18 @@
       <c r="R63" s="1" t="n">
         <f aca="false">GEOMEAN(N63:O63)</f>
         <v>1064023.9426651</v>
+      </c>
+      <c r="AC63" s="0" t="n">
+        <v>14870898.8776463</v>
+      </c>
+      <c r="AD63" s="0" t="n">
+        <v>846286.964607363</v>
+      </c>
+      <c r="AE63" s="0" t="n">
+        <v>1482839636156.41</v>
+      </c>
+      <c r="AF63" s="0" t="n">
+        <v>84386819183.3819</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5827,19 +6512,19 @@
         <v>1886</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>8087.42</v>
@@ -5851,7 +6536,7 @@
         <v>1.12</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>12302</v>
@@ -5860,7 +6545,7 @@
         <v>19086449836679.7</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="N64" s="2" t="n">
         <v>101042791.777757</v>
@@ -5877,14 +6562,26 @@
       <c r="R64" s="1" t="n">
         <f aca="false">GEOMEAN(N64:O64)</f>
         <v>15105938.1029255</v>
+      </c>
+      <c r="AC64" s="0" t="n">
+        <v>38559612.2046146</v>
+      </c>
+      <c r="AD64" s="0" t="n">
+        <v>1100344.62376259</v>
+      </c>
+      <c r="AE64" s="0" t="n">
+        <v>185871212286.636</v>
+      </c>
+      <c r="AF64" s="0" t="n">
+        <v>5304057210.60026</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB64"/>
   <hyperlinks>
-    <hyperlink ref="W3" r:id="rId1" display="http://alcesjournal.org/index.php/alces/article/viewFile/155/199"/>
-    <hyperlink ref="W10" r:id="rId2" display="http://www.carnivoreconservation.org/files/actionplans/canids.pdf"/>
-    <hyperlink ref="W22" r:id="rId3" display="https://repository.up.ac.za/bitstream/handle/2263/52926/Havemann_Roan_2016.pdf?sequence=1"/>
+    <hyperlink ref="W3" r:id="rId1" display="Possible links - http://alcesjournal.org/index.php/alces/article/viewFile/155/199"/>
+    <hyperlink ref="W10" r:id="rId2" display="Taking the geometric mean density of 1 per 12 km^2 and 1 per 120 km^2. Based on country by country assesment it is 167210 (http://www.carnivoreconservation.org/files/actionplans/canids.pdf)"/>
+    <hyperlink ref="W22" r:id="rId3" display="More detailed account - https://repository.up.ac.za/bitstream/handle/2263/52926/Havemann_Roan_2016.pdf?sequence=1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
